--- a/medicine/Enfance/Traitement_public_de_protection_de_l'enfance_en_danger_en_France/Traitement_public_de_protection_de_l'enfance_en_danger_en_France.xlsx
+++ b/medicine/Enfance/Traitement_public_de_protection_de_l'enfance_en_danger_en_France/Traitement_public_de_protection_de_l'enfance_en_danger_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Traitement_public_de_protection_de_l%27enfance_en_danger_en_France</t>
+          <t>Traitement_public_de_protection_de_l'enfance_en_danger_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement public de la Protection de l'enfance en France s'articule entre une protection sociale et administrative et une prise en charge judiciaire .
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Traitement_public_de_protection_de_l%27enfance_en_danger_en_France</t>
+          <t>Traitement_public_de_protection_de_l'enfance_en_danger_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>La protection sociale et administrative de l'enfance en danger</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque les conditions d'existence risquent de mettre en danger la santé, la sécurité, la moralité ou l'éducation des enfants (décret de 1959) et avec l'accord des personnes détenant l'autorité parentale (loi de 1984), une action sociale préventive s'exerce auprès des familles (art. R 221-1 et suivants du code de l'action sociale et des familles).
 Trois services placés sous l'autorité du Président du Conseil général - chargé de cette protection depuis les lois de décentralisation (loi de 1982) - contribuent à sa mise en œuvre :
@@ -524,7 +538,7 @@
 2 actions principales :
 La prévention (aides financières, actions éducatives en milieu ouvert) dont la prévention spécialisée.
 le recueil d'enfants placés hors de leur domicile familial, soit à la demande de la famille, ou dans le cadre d'une mesure de placement ordonnée par le juge des enfants (article 375 du code civil)
-Aux termes de l'article L.221-1 du Code de l'action sociale et des familles[1], le Président du Conseil Général, avec ses services, se doit de :
+Aux termes de l'article L.221-1 du Code de l'action sociale et des familles, le Président du Conseil Général, avec ses services, se doit de :
 mener en urgence des actions de protection en faveur des mineurs
 mener des actions de prévention des mauvais traitements à l'égard des mineurs
 organiser le recueil d'information relatives aux mineurs maltraités
@@ -546,7 +560,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Traitement_public_de_protection_de_l%27enfance_en_danger_en_France</t>
+          <t>Traitement_public_de_protection_de_l'enfance_en_danger_en_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,7 +578,9 @@
           <t>La protection judiciaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle intervient si la santé, la sécurité ou la moralité d'un enfant sont en danger ou si ses conditions d'éducation sont gravement compromises, ainsi que lorsqu'un mineur est victime de mauvais traitements ou présumé l'être, et qu'il est impossible d'évaluer la situation ou que la famille refuse manifestement d'accepter l'intervention du service de l'aide sociale à l'enfance. Elle intervient également quand le mineur se met lui-même en danger et dans le cadre de la délinquance des mineurs.
 Le parquet :
@@ -587,7 +603,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Traitement_public_de_protection_de_l%27enfance_en_danger_en_France</t>
+          <t>Traitement_public_de_protection_de_l'enfance_en_danger_en_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,7 +621,9 @@
           <t>Exemple 1 - L’assistance éducative</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'assistance éducative est une mesure pouvant être prises par le juge des enfants, lorsque la santé, la sécurité ou la moralité d'un mineur non émancipé sont supposés gravement compromises.
 Les parents conservent l'autorité parentale et les décisions du juge des enfants sont susceptibles d'appel.
@@ -628,7 +646,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Traitement_public_de_protection_de_l%27enfance_en_danger_en_France</t>
+          <t>Traitement_public_de_protection_de_l'enfance_en_danger_en_France</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -647,6 +665,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -654,7 +674,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Traitement_public_de_protection_de_l%27enfance_en_danger_en_France</t>
+          <t>Traitement_public_de_protection_de_l'enfance_en_danger_en_France</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -673,6 +693,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
